--- a/spark/experiments/results-sql-g2.3.csv/g2.3-3t-n3-c2.xlsx
+++ b/spark/experiments/results-sql-g2.3.csv/g2.3-3t-n3-c2.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d7c130d1b636f27d/Documents/heterogenous-scaling-in-k8s/spark/experiments/results-sql-g2.3.csv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eddy\Documents\DistriNetProjects\Decomads\heterogenous-scaling-in-k8s\spark\experiments\results-sql-g2.3.csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C153877C-3B46-4603-8F5D-DF252CC7414A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="part-00000-684c61a7-4847-4eb7-9" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="56">
   <si>
     <t>name</t>
   </si>
@@ -185,12 +184,15 @@
   </si>
   <si>
     <t>g2.1-2tno cache</t>
+  </si>
+  <si>
+    <t>too high deviation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -702,24 +704,24 @@
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Berekening" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Controlecel" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Gekoppelde cel" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Goed" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Invoer" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Kop 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Kop 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Kop 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Kop 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Neutraal" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notitie" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Ongeldig" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
-    <cellStyle name="Titel" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Totaal" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Uitvoer" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Verklarende tekst" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Waarschuwingstekst" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -735,9 +737,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -749,6 +751,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -939,7 +942,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-374B-42EB-A0B9-D1E191BD1F6A}"/>
             </c:ext>
@@ -953,11 +956,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1393760367"/>
-        <c:axId val="1397521983"/>
+        <c:axId val="-938596960"/>
+        <c:axId val="-938598048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1393760367"/>
+        <c:axId val="-938596960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1013,12 +1016,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1397521983"/>
+        <c:crossAx val="-938598048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1397521983"/>
+        <c:axId val="-938598048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1075,7 +1078,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1393760367"/>
+        <c:crossAx val="-938596960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1089,14 +1092,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1707,7 +1710,7 @@
         <xdr:cNvPr id="2" name="Grafiek 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C61C4AE8-6248-4BEA-BAC5-26095D4B0C43}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C61C4AE8-6248-4BEA-BAC5-26095D4B0C43}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2027,13 +2030,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52:D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2113,7 +2119,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -2187,7 +2193,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -2261,7 +2267,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -2335,7 +2341,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2409,7 +2415,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -2483,7 +2489,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -2557,7 +2563,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -2631,7 +2637,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -2705,7 +2711,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -2779,7 +2785,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -2853,7 +2859,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -2927,7 +2933,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -3001,7 +3007,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -3075,7 +3081,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -3149,7 +3155,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -3223,7 +3229,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -3297,7 +3303,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -3371,7 +3377,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -3445,7 +3451,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -3519,7 +3525,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -3593,7 +3599,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -3667,7 +3673,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -3741,7 +3747,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -3815,7 +3821,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -3889,7 +3895,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -3963,7 +3969,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -4037,7 +4043,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -4111,7 +4117,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -4185,7 +4191,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -4259,7 +4265,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -4333,7 +4339,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -4407,7 +4413,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -4481,7 +4487,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -4555,7 +4561,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -4629,7 +4635,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -4703,7 +4709,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -4777,7 +4783,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -4851,7 +4857,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -4925,7 +4931,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -4999,7 +5005,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -5073,20 +5079,20 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>45</v>
       </c>
       <c r="C42" s="1">
-        <f>PERCENTILE((C41,C40,C37,C36,C33,C32,C29,C28,C25,C24,C21,C20,C17,C16,C13,C12,C9,C8),0.95)</f>
-        <v>35053613697</v>
+        <f>PERCENTILE((C33,C32,C29,C28,C25,C24,C21,C20,C17,C16,C13,C12),0.95)</f>
+        <v>35079409641</v>
       </c>
       <c r="D42" s="1">
         <v>1554416717.2999997</v>
       </c>
       <c r="E42" s="2">
         <f>C42-D42</f>
-        <v>33499196979.700001</v>
+        <v>33524992923.700001</v>
       </c>
       <c r="H42">
         <f>AVERAGE(H41,H40,H37,H36,H33,H32,H29,H28,H25,H24,H21,H20,H17,H16,H13,H12,H9,H8,H5,H4)</f>
@@ -5097,7 +5103,7 @@
         <v>309828318.69999999</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -5118,7 +5124,7 @@
         <v>257487745.51999989</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -5142,7 +5148,7 @@
         <v>166973046.90000001</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -5162,7 +5168,7 @@
         <v>119729027.56000002</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -5190,7 +5196,7 @@
         <v>9536027312</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -5218,7 +5224,7 @@
         <v>158933.78853333334</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -5238,19 +5244,19 @@
         <v>231.65480617199978</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>52</v>
       </c>
       <c r="C50">
         <f>C42/1000/1000/1000</f>
-        <v>35.053613696999996</v>
+        <v>35.079409641000005</v>
       </c>
       <c r="D50">
         <v>1.5544167172999996</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -5260,6 +5266,9 @@
       </c>
       <c r="D51">
         <v>99.357644473649998</v>
+      </c>
+      <c r="F51" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/spark/experiments/results-sql-g2.3.csv/g2.3-3t-n3-c2.xlsx
+++ b/spark/experiments/results-sql-g2.3.csv/g2.3-3t-n3-c2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="56">
   <si>
     <t>name</t>
   </si>
@@ -956,11 +956,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-938596960"/>
-        <c:axId val="-938598048"/>
+        <c:axId val="1498988960"/>
+        <c:axId val="1498987872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-938596960"/>
+        <c:axId val="1498988960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1016,12 +1016,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-938598048"/>
+        <c:crossAx val="1498987872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-938598048"/>
+        <c:axId val="1498987872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1078,7 +1078,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-938596960"/>
+        <c:crossAx val="1498988960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1710,7 +1710,7 @@
         <xdr:cNvPr id="2" name="Grafiek 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C61C4AE8-6248-4BEA-BAC5-26095D4B0C43}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C61C4AE8-6248-4BEA-BAC5-26095D4B0C43}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2030,8 +2030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52:D52"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5255,6 +5255,9 @@
       <c r="D50">
         <v>1.5544167172999996</v>
       </c>
+      <c r="F50" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
